--- a/biology/Botanique/Cerisier_de_Cayenne/Cerisier_de_Cayenne.xlsx
+++ b/biology/Botanique/Cerisier_de_Cayenne/Cerisier_de_Cayenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugenia uniflora
-Eugenia uniflora est un arbuste fruitier de la famille des Myrtacées[3].
-Il est connu sous les noms de cerisier de Cayenne, ou cerisier carré, ou Pitange du Brésil[4], ou cerisier créole, ou cerise à côtes ou roussaille ou Brazilian Cherry (anglais), 
+Eugenia uniflora est un arbuste fruitier de la famille des Myrtacées.
+Il est connu sous les noms de cerisier de Cayenne, ou cerisier carré, ou Pitange du Brésil, ou cerisier créole, ou cerise à côtes ou roussaille ou Brazilian Cherry (anglais), 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce fruitier tropical est originaire d'Amérique du Sud (forêts-galeries d'Argentine et Paraguay, Uruguay, Brésil, Guyane, Suriname)[5]. Il a été introduit aux Antilles et à La Réunion.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce fruitier tropical est originaire d'Amérique du Sud (forêts-galeries d'Argentine et Paraguay, Uruguay, Brésil, Guyane, Suriname). Il a été introduit aux Antilles et à La Réunion.
 Il est donné avec une rusticité USDA 10a à 11. Il perd ses feuilles en cas de gel supérieur à -2°, et meurt à -4°
 La fructification se fait d'octobre à décembre (hémisphère nord), elle est abondante si la plante a été bien arrosée pendant l'été.
 On reproduit la plante fidèlement par bouture.
@@ -547,7 +561,9 @@
           <t>Cuisine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe de nombreuses variétés de cerises de Cayenne, certaines sont douces, acides, rafraîchissantes. La variété à gros fruits noirs est épicée et aromatique.
 On consomme les fruits crus, en jus ou en confiture.
@@ -579,9 +595,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci, à propos de cette plante, dans son « HISTOIRE DES PLANTES DE LA GUIANE FRANÇOISE »[6] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci, à propos de cette plante, dans son « HISTOIRE DES PLANTES DE LA GUIANE FRANÇOISE » : 
 « EUGENIA (uniflora) foliis integerrimis, pedunculis unifloris, lateralibus. Lin. Zeyl. 180. Spec. 673. 
 Eugenia Indica, myrti folio deciduo, flore albo, fructu ſuaverubente, molli, leviter ſulcato &amp; odoro. Mich. Gen. 226. t. 108. 
 Myrtus Indica, foliis rigeſcentibus, latis ac recurvis, parùm odoratis. Till. H. Piſ. 117. t. 44. 
